--- a/data/144/SCB/old/PPI2015M.xlsx
+++ b/data/144/SCB/old/PPI2015M.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
   <x:si>
     <x:t>Producer Price Index by market and products by products by SPIN 2015, observations and month</x:t>
   </x:si>
@@ -1159,6 +1159,15 @@
     <x:t>2021M08</x:t>
   </x:si>
   <x:si>
+    <x:t>2021M09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M11</x:t>
+  </x:si>
+  <x:si>
     <x:t>C MANUFACTURED PRODUCTS</x:t>
   </x:si>
   <x:si>
@@ -1198,7 +1207,7 @@
     <x:t>Export Price Index (EXPI):</x:t>
   </x:si>
   <x:si>
-    <x:t>20210924 09:30</x:t>
+    <x:t>20211222 09:30</x:t>
   </x:si>
   <x:si>
     <x:t>Producer Price Index (PPI):</x:t>
@@ -1648,7 +1657,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:NR76"/>
+  <x:dimension ref="A1:NU76"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -1656,15 +1665,15 @@
   <x:cols>
     <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="36.130625" style="0" customWidth="1"/>
-    <x:col min="3" max="382" width="10.840625000000001" style="0" customWidth="1"/>
+    <x:col min="3" max="385" width="10.840625000000001" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:382">
+    <x:row r="1" spans="1:385">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:382">
+    <x:row r="3" spans="1:385">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -2805,13 +2814,22 @@
       <x:c r="NR3" s="2" t="s">
         <x:v>380</x:v>
       </x:c>
+      <x:c r="NS3" s="2" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="NT3" s="2" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="NU3" s="2" t="s">
+        <x:v>383</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:382">
+    <x:row r="4" spans="1:385">
       <x:c r="A4" s="2" t="s">
-        <x:v>381</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>382</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>72</x:v>
@@ -3953,10 +3971,19 @@
       <x:c r="NR4" s="3" t="n">
         <x:v>121.2</x:v>
       </x:c>
+      <x:c r="NS4" s="3" t="n">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="NT4" s="3" t="n">
+        <x:v>123.4</x:v>
+      </x:c>
+      <x:c r="NU4" s="3" t="n">
+        <x:v>123</x:v>
+      </x:c>
     </x:row>
-    <x:row r="5" spans="1:382">
+    <x:row r="5" spans="1:385">
       <x:c r="B5" s="2" t="s">
-        <x:v>383</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>67.6</x:v>
@@ -5098,10 +5125,19 @@
       <x:c r="NR5" s="3" t="n">
         <x:v>122.5</x:v>
       </x:c>
+      <x:c r="NS5" s="3" t="n">
+        <x:v>123.6</x:v>
+      </x:c>
+      <x:c r="NT5" s="3" t="n">
+        <x:v>124.9</x:v>
+      </x:c>
+      <x:c r="NU5" s="3" t="n">
+        <x:v>125.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:382">
+    <x:row r="6" spans="1:385">
       <x:c r="B6" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>63.5</x:v>
@@ -6243,13 +6279,22 @@
       <x:c r="NR6" s="3" t="n">
         <x:v>119.9</x:v>
       </x:c>
+      <x:c r="NS6" s="3" t="n">
+        <x:v>121.5</x:v>
+      </x:c>
+      <x:c r="NT6" s="3" t="n">
+        <x:v>123.1</x:v>
+      </x:c>
+      <x:c r="NU6" s="3" t="n">
+        <x:v>123.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:382">
+    <x:row r="7" spans="1:385">
       <x:c r="A7" s="2" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>385</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>382</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>46</x:v>
@@ -7391,10 +7436,19 @@
       <x:c r="NR7" s="3" t="n">
         <x:v>118.7</x:v>
       </x:c>
+      <x:c r="NS7" s="3" t="n">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="NT7" s="3" t="n">
+        <x:v>122.5</x:v>
+      </x:c>
+      <x:c r="NU7" s="3" t="n">
+        <x:v>124</x:v>
+      </x:c>
     </x:row>
-    <x:row r="8" spans="1:382">
+    <x:row r="8" spans="1:385">
       <x:c r="B8" s="2" t="s">
-        <x:v>383</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>42.8</x:v>
@@ -8536,10 +8590,19 @@
       <x:c r="NR8" s="3" t="n">
         <x:v>123</x:v>
       </x:c>
+      <x:c r="NS8" s="3" t="n">
+        <x:v>124.7</x:v>
+      </x:c>
+      <x:c r="NT8" s="3" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="NU8" s="3" t="n">
+        <x:v>130.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:382">
+    <x:row r="9" spans="1:385">
       <x:c r="B9" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>45.3</x:v>
@@ -9681,13 +9744,22 @@
       <x:c r="NR9" s="3" t="n">
         <x:v>131.1</x:v>
       </x:c>
+      <x:c r="NS9" s="3" t="n">
+        <x:v>134.2</x:v>
+      </x:c>
+      <x:c r="NT9" s="3" t="n">
+        <x:v>139.9</x:v>
+      </x:c>
+      <x:c r="NU9" s="3" t="n">
+        <x:v>145.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:382">
+    <x:row r="10" spans="1:385">
       <x:c r="A10" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>382</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>81.8</x:v>
@@ -10829,10 +10901,19 @@
       <x:c r="NR10" s="3" t="n">
         <x:v>110.7</x:v>
       </x:c>
+      <x:c r="NS10" s="3" t="n">
+        <x:v>110.8</x:v>
+      </x:c>
+      <x:c r="NT10" s="3" t="n">
+        <x:v>111.2</x:v>
+      </x:c>
+      <x:c r="NU10" s="3" t="n">
+        <x:v>111.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="11" spans="1:382">
+    <x:row r="11" spans="1:385">
       <x:c r="B11" s="2" t="s">
-        <x:v>383</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>77.4</x:v>
@@ -11974,10 +12055,19 @@
       <x:c r="NR11" s="3" t="n">
         <x:v>113.5</x:v>
       </x:c>
+      <x:c r="NS11" s="3" t="n">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="NT11" s="3" t="n">
+        <x:v>114.8</x:v>
+      </x:c>
+      <x:c r="NU11" s="3" t="n">
+        <x:v>115.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="12" spans="1:382">
+    <x:row r="12" spans="1:385">
       <x:c r="B12" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>77.5</x:v>
@@ -13119,13 +13209,22 @@
       <x:c r="NR12" s="3" t="n">
         <x:v>113</x:v>
       </x:c>
+      <x:c r="NS12" s="3" t="n">
+        <x:v>113.9</x:v>
+      </x:c>
+      <x:c r="NT12" s="3" t="n">
+        <x:v>114.6</x:v>
+      </x:c>
+      <x:c r="NU12" s="3" t="n">
+        <x:v>114.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="13" spans="1:382">
+    <x:row r="13" spans="1:385">
       <x:c r="A13" s="2" t="s">
-        <x:v>387</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>382</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>54.7</x:v>
@@ -14267,10 +14366,19 @@
       <x:c r="NR13" s="3" t="n">
         <x:v>115.1</x:v>
       </x:c>
+      <x:c r="NS13" s="3" t="n">
+        <x:v>115.3</x:v>
+      </x:c>
+      <x:c r="NT13" s="3" t="n">
+        <x:v>115.5</x:v>
+      </x:c>
+      <x:c r="NU13" s="3" t="n">
+        <x:v>114.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="14" spans="1:382">
+    <x:row r="14" spans="1:385">
       <x:c r="B14" s="2" t="s">
-        <x:v>383</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>55.4</x:v>
@@ -15412,10 +15520,19 @@
       <x:c r="NR14" s="3" t="n">
         <x:v>114.4</x:v>
       </x:c>
+      <x:c r="NS14" s="3" t="n">
+        <x:v>114.6</x:v>
+      </x:c>
+      <x:c r="NT14" s="3" t="n">
+        <x:v>114.9</x:v>
+      </x:c>
+      <x:c r="NU14" s="3" t="n">
+        <x:v>114.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="15" spans="1:382">
+    <x:row r="15" spans="1:385">
       <x:c r="B15" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>59.6</x:v>
@@ -16557,13 +16674,22 @@
       <x:c r="NR15" s="3" t="n">
         <x:v>112.5</x:v>
       </x:c>
+      <x:c r="NS15" s="3" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="NT15" s="3" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="NU15" s="3" t="n">
+        <x:v>112.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="16" spans="1:382">
+    <x:row r="16" spans="1:385">
       <x:c r="A16" s="2" t="s">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>382</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>84.7</x:v>
@@ -17705,10 +17831,19 @@
       <x:c r="NR16" s="3" t="n">
         <x:v>110.3</x:v>
       </x:c>
+      <x:c r="NS16" s="3" t="n">
+        <x:v>110.5</x:v>
+      </x:c>
+      <x:c r="NT16" s="3" t="n">
+        <x:v>110.7</x:v>
+      </x:c>
+      <x:c r="NU16" s="3" t="n">
+        <x:v>111.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="17" spans="1:382">
+    <x:row r="17" spans="1:385">
       <x:c r="B17" s="2" t="s">
-        <x:v>383</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>81.1</x:v>
@@ -18850,10 +18985,19 @@
       <x:c r="NR17" s="3" t="n">
         <x:v>111.8</x:v>
       </x:c>
+      <x:c r="NS17" s="3" t="n">
+        <x:v>112.3</x:v>
+      </x:c>
+      <x:c r="NT17" s="3" t="n">
+        <x:v>112.7</x:v>
+      </x:c>
+      <x:c r="NU17" s="3" t="n">
+        <x:v>113.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="18" spans="1:382">
+    <x:row r="18" spans="1:385">
       <x:c r="B18" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>83.4</x:v>
@@ -19995,221 +20139,230 @@
       <x:c r="NR18" s="3" t="n">
         <x:v>109.8</x:v>
       </x:c>
+      <x:c r="NS18" s="3" t="n">
+        <x:v>110.7</x:v>
+      </x:c>
+      <x:c r="NT18" s="3" t="n">
+        <x:v>111.2</x:v>
+      </x:c>
+      <x:c r="NU18" s="3" t="n">
+        <x:v>110.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="20" spans="1:382">
+    <x:row r="20" spans="1:385">
       <x:c r="A20" s="4" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:382">
+    <x:row r="21" spans="1:385">
       <x:c r="A21" s="4" t="s">
-        <x:v>390</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:382">
+    <x:row r="22" spans="1:385">
       <x:c r="A22" s="4" t="s">
-        <x:v>391</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:382">
+    <x:row r="24" spans="1:385">
       <x:c r="A24" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:382">
+    <x:row r="25" spans="1:385">
       <x:c r="A25" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:382">
+    <x:row r="26" spans="1:385">
       <x:c r="A26" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>397</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:382">
+    <x:row r="27" spans="1:385">
       <x:c r="A27" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>398</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:382">
+    <x:row r="28" spans="1:385">
       <x:c r="A28" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>397</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:382">
+    <x:row r="29" spans="1:385">
       <x:c r="A29" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:385">
+      <x:c r="A30" s="0" t="s">
+        <x:v>397</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:385">
+      <x:c r="A32" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:385">
+      <x:c r="A33" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:385">
+      <x:c r="A35" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:385">
+      <x:c r="A36" s="0" t="s">
         <x:v>396</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:382">
-      <x:c r="A30" s="0" t="s">
-        <x:v>394</x:v>
+    <x:row r="37" spans="1:385">
+      <x:c r="A37" s="0" t="s">
+        <x:v>403</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:382">
-      <x:c r="A32" s="0" t="s">
-        <x:v>397</x:v>
+    <x:row r="38" spans="1:385">
+      <x:c r="A38" s="0" t="s">
+        <x:v>404</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:382">
-      <x:c r="A33" s="0" t="s">
-        <x:v>398</x:v>
+    <x:row r="39" spans="1:385">
+      <x:c r="A39" s="0" t="s">
+        <x:v>405</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:382">
-      <x:c r="A35" s="0" t="s">
-        <x:v>399</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:382">
-      <x:c r="A36" s="0" t="s">
-        <x:v>393</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:382">
-      <x:c r="A37" s="0" t="s">
-        <x:v>400</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:382">
-      <x:c r="A38" s="0" t="s">
-        <x:v>401</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:382">
-      <x:c r="A39" s="0" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:382">
+    <x:row r="40" spans="1:385">
       <x:c r="A40" s="0" t="s"/>
     </x:row>
-    <x:row r="41" spans="1:382">
+    <x:row r="41" spans="1:385">
       <x:c r="A41" s="0" t="s"/>
     </x:row>
-    <x:row r="44" spans="1:382">
+    <x:row r="44" spans="1:385">
       <x:c r="A44" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:382">
+    <x:row r="45" spans="1:385">
       <x:c r="A45" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:382">
+    <x:row r="46" spans="1:385">
       <x:c r="A46" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>407</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:382">
+    <x:row r="47" spans="1:385">
       <x:c r="A47" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>398</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:382">
+    <x:row r="48" spans="1:385">
       <x:c r="A48" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>407</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:382">
+    <x:row r="49" spans="1:385">
       <x:c r="A49" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:385">
+      <x:c r="A50" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:385">
+      <x:c r="A51" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:385">
+      <x:c r="A52" s="0" t="s">
         <x:v>396</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:382">
-      <x:c r="A50" s="0" t="s">
-        <x:v>404</x:v>
+    <x:row r="53" spans="1:385">
+      <x:c r="A53" s="0" t="s">
+        <x:v>409</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:382">
-      <x:c r="A51" s="0" t="s">
-        <x:v>405</x:v>
+    <x:row r="54" spans="1:385">
+      <x:c r="A54" s="0" t="s">
+        <x:v>398</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:382">
-      <x:c r="A52" s="0" t="s">
-        <x:v>393</x:v>
+    <x:row r="55" spans="1:385">
+      <x:c r="A55" s="0" t="s">
+        <x:v>409</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:382">
-      <x:c r="A53" s="0" t="s">
-        <x:v>406</x:v>
+    <x:row r="56" spans="1:385">
+      <x:c r="A56" s="0" t="s">
+        <x:v>399</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:382">
-      <x:c r="A54" s="0" t="s">
-        <x:v>395</x:v>
+    <x:row r="57" spans="1:385">
+      <x:c r="A57" s="0" t="s">
+        <x:v>409</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:382">
-      <x:c r="A55" s="0" t="s">
-        <x:v>406</x:v>
+    <x:row r="61" spans="1:385">
+      <x:c r="A61" s="0" t="s">
+        <x:v>396</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:382">
-      <x:c r="A56" s="0" t="s">
-        <x:v>396</x:v>
+    <x:row r="62" spans="1:385">
+      <x:c r="A62" s="0" t="s">
+        <x:v>410</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:382">
-      <x:c r="A57" s="0" t="s">
-        <x:v>406</x:v>
+    <x:row r="63" spans="1:385">
+      <x:c r="A63" s="0" t="s">
+        <x:v>398</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:382">
-      <x:c r="A61" s="0" t="s">
-        <x:v>393</x:v>
+    <x:row r="64" spans="1:385">
+      <x:c r="A64" s="0" t="s">
+        <x:v>410</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:382">
-      <x:c r="A62" s="0" t="s">
-        <x:v>407</x:v>
+    <x:row r="65" spans="1:385">
+      <x:c r="A65" s="0" t="s">
+        <x:v>399</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:382">
-      <x:c r="A63" s="0" t="s">
-        <x:v>395</x:v>
+    <x:row r="66" spans="1:385">
+      <x:c r="A66" s="0" t="s">
+        <x:v>410</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:382">
-      <x:c r="A64" s="0" t="s">
-        <x:v>407</x:v>
+    <x:row r="70" spans="1:385">
+      <x:c r="A70" s="0" t="s">
+        <x:v>411</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:382">
-      <x:c r="A65" s="0" t="s">
-        <x:v>396</x:v>
+    <x:row r="72" spans="1:385">
+      <x:c r="A72" s="0" t="s">
+        <x:v>412</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:382">
-      <x:c r="A66" s="0" t="s">
-        <x:v>407</x:v>
+    <x:row r="73" spans="1:385">
+      <x:c r="A73" s="0" t="s">
+        <x:v>413</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:382">
-      <x:c r="A70" s="0" t="s">
-        <x:v>408</x:v>
+    <x:row r="75" spans="1:385">
+      <x:c r="A75" s="0" t="s">
+        <x:v>414</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:382">
-      <x:c r="A72" s="0" t="s">
-        <x:v>409</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:382">
-      <x:c r="A73" s="0" t="s">
-        <x:v>410</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:382">
-      <x:c r="A75" s="0" t="s">
-        <x:v>411</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:382">
+    <x:row r="76" spans="1:385">
       <x:c r="A76" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>415</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
